--- a/supporting_information/Table 1.xlsx
+++ b/supporting_information/Table 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noob\Desktop\supporting_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B295C97E-47A1-4F55-9A29-917201A29E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA0BFDE-8952-41C2-A80C-545C585905A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Table T1. Characterizing connectivity patterns on the circuit based on absorption and driftiness values of classes.</t>
   </si>
@@ -2195,6 +2195,88 @@
   <si>
     <t>Very accessible classes, with characteristics of a hub. These classes integrate sensory information from multiple modalities.
 Act as intermediaries for information propagation between left-and-right hemispheres.</t>
+  </si>
+  <si>
+    <r>
+      <t>D(39→13) in the top 15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> percentile of D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from 39
+D(37→11) in the top 4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> percentile of D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from 37</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2853,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2893,7 +2975,7 @@
       <c r="B4" s="11"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="54">
+    <row r="5" spans="1:3" ht="56.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -3071,90 +3153,88 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" ht="66">
-      <c r="A30" s="15" t="s">
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" ht="36">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:3" ht="36" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" ht="69">
+      <c r="A32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" ht="37.5">
-      <c r="A32" s="9"/>
-      <c r="B32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="17.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="1:3" ht="37.5">
+    <row r="34" spans="1:3" ht="36">
       <c r="A34" s="9"/>
       <c r="B34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" ht="36">
+      <c r="A36" s="9"/>
+      <c r="B36" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:3" ht="36" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" ht="17.25">
+      <c r="A38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:3" ht="37.5">
-      <c r="A38" s="9"/>
-      <c r="B38" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="17.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:3" ht="37.5">
+    <row r="40" spans="1:3" ht="36">
       <c r="A40" s="9"/>
       <c r="B40" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.25">
@@ -3165,10 +3245,10 @@
     <row r="42" spans="1:3" ht="36">
       <c r="A42" s="9"/>
       <c r="B42" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17.25">
@@ -3179,38 +3259,38 @@
     <row r="44" spans="1:3" ht="36">
       <c r="A44" s="9"/>
       <c r="B44" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" ht="36">
+      <c r="A46" s="9"/>
+      <c r="B46" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" ht="36" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="36">
-      <c r="A46" s="15" t="s">
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" ht="36" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:3" ht="36">
+      <c r="A48" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="1:3" ht="36">
-      <c r="A48" s="9"/>
-      <c r="B48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17.25">
@@ -3221,24 +3301,39 @@
     <row r="50" spans="1:3" ht="36">
       <c r="A50" s="9"/>
       <c r="B50" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" ht="36">
+      <c r="A52" s="9"/>
+      <c r="B52" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-    </row>
-    <row r="52" spans="1:3" ht="36">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20" t="s">
+    <row r="53" spans="1:3" ht="17.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" ht="36">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="21"/>
-    </row>
+      <c r="C54" s="21"/>
+    </row>
+    <row r="55" spans="1:3" ht="17.25"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
